--- a/medicine/Mort/Terrorisme_en_2012/Terrorisme_en_2012.xlsx
+++ b/medicine/Mort/Terrorisme_en_2012/Terrorisme_en_2012.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2015
 2016
 ►►
-L'année 2012 est l'année de l'explosion du nombre d'attentats et de victimes. Ceci est dû en grande partie à la guerre faisant rage en Syrie et en Irak. Il y eut en tout, cette année-là, 15 457 victimes pour 8 491 attentats perpétrés[1].
+L'année 2012 est l'année de l'explosion du nombre d'attentats et de victimes. Ceci est dû en grande partie à la guerre faisant rage en Syrie et en Irak. Il y eut en tout, cette année-là, 15 457 victimes pour 8 491 attentats perpétrés.
 </t>
         </is>
       </c>
@@ -526,43 +538,352 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-16 janvier 2012, Yémen : 2 morts (2 soldats yéménites), lors de la prise de la ville de Raddah par Al-Qaida[2]
-Février
-26 février 2012, France : le procès par contumace de trois des quatre terroristes responsables de l'attentat contre le City of Poros en juillet 1988 commence[3].
-Mars
-3 mars 2012 : Algérie. Attentat de Tamanrasset. Un kamikaze du MUJAO fait exploser son véhicule piégé contre la[4] brigade de gendarmerie à 6h45 GMT. 24 blessés, un mort[5].
-11 au 22 mars 2012 : France. Tueries à Toulouse et Montauban, l'islamiste Mohammed Merah tue 7 personnes, parmi lesquels 3 militaires, puis 3 enfants et 1 adulte devant une école juive[6].
-Avril
-Mai
-19 mai 2012 : Italie. L'explosion d'une bombe devant un lycée de Brindisi fait 1 mort et 6 blessés.
-21 mai 2012 : Yémen. Un attentat-suicide frappe un défilé militaire célébrant le 22e anniversaire de l'unification du pays et fait 100 morts parmi les soldats à Saana. L'attentat, revendiqué par Al-Qaida dans la Péninsule arabique, est attribué à un agent infiltré au sein de la sécurité centrale[7].
-Juin
-4 juin 2012 : Irak. Un attentat-suicide à la voiture piégée frappe une fondation religieuse chiite à Bagdad, faisant 25 morts et une soixantaine de blessés. Al-Qaïda en Irak, revendique l'attaque[8].
-13 juin 2012 : Irak. Une série d'attaques commises au cours de la célébration d'une fête religieuse chiite entraîne la mort de 72 personnes et fait plus de 250 blessés. Al-Qaïda en Irak, revendique l'attaque[9].
-Juillet
-10 juillet 2012 : Irak. La branche irakienne d'Al-Qaida revendique plus d'une quarantaine d'attentats à travers le pays, étalés sur plusieurs mois[9].
-11 juillet 2012 : Yémen. Un attentat-suicide frappe une école de police à Saana, causant la mort de plus de 20 personnes. L'attaque est revendiquée par la branche yéménite d'Al-Qaida (AQPA)[10],[11].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 janvier 2012, Yémen : 2 morts (2 soldats yéménites), lors de la prise de la ville de Raddah par Al-Qaida</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26 février 2012, France : le procès par contumace de trois des quatre terroristes responsables de l'attentat contre le City of Poros en juillet 1988 commence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 mars 2012 : Algérie. Attentat de Tamanrasset. Un kamikaze du MUJAO fait exploser son véhicule piégé contre la brigade de gendarmerie à 6h45 GMT. 24 blessés, un mort.
+11 au 22 mars 2012 : France. Tueries à Toulouse et Montauban, l'islamiste Mohammed Merah tue 7 personnes, parmi lesquels 3 militaires, puis 3 enfants et 1 adulte devant une école juive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 mai 2012 : Italie. L'explosion d'une bombe devant un lycée de Brindisi fait 1 mort et 6 blessés.
+21 mai 2012 : Yémen. Un attentat-suicide frappe un défilé militaire célébrant le 22e anniversaire de l'unification du pays et fait 100 morts parmi les soldats à Saana. L'attentat, revendiqué par Al-Qaida dans la Péninsule arabique, est attribué à un agent infiltré au sein de la sécurité centrale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 juin 2012 : Irak. Un attentat-suicide à la voiture piégée frappe une fondation religieuse chiite à Bagdad, faisant 25 morts et une soixantaine de blessés. Al-Qaïda en Irak, revendique l'attaque.
+13 juin 2012 : Irak. Une série d'attaques commises au cours de la célébration d'une fête religieuse chiite entraîne la mort de 72 personnes et fait plus de 250 blessés. Al-Qaïda en Irak, revendique l'attaque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10 juillet 2012 : Irak. La branche irakienne d'Al-Qaida revendique plus d'une quarantaine d'attentats à travers le pays, étalés sur plusieurs mois.
+11 juillet 2012 : Yémen. Un attentat-suicide frappe une école de police à Saana, causant la mort de plus de 20 personnes. L'attaque est revendiquée par la branche yéménite d'Al-Qaida (AQPA),.
 18 juillet 2012 : Syrie. Attentat à Damas contre le siège de la Sécurité nationale syrienne, 4 morts et 8 blessés.
 18 juillet 2012 : Bulgarie: Attentat-suicide à Bourgas contre un car de touristes israéliens, 6 morts et 32 blessés.
-19 juillet 2012 : États-Unis. Une fusillade à Aurora dans une salle de cinéma fait 12 morts[12].
-23 juillet 2012 : Irak. Une série d'attentats à la bombe touche 13 villes et cause la mort de 103 personnes à travers le pays[13]. L'État islamique d'Irak revendique l'attaque, branche irakienne d'Al-Qaida[14].
-Août
-5 août 2012 : Égypte. 16 gardes-frontières sont tués au terminal de Karm-Abou-Salem par un commando terroriste[15].
-13 août 2012 : Irak. L'EI d'Irak revendique la responsabilité de 28 attaques perpétrées en Irak entre mi-juin et fin juillet, dont une ayant visé un département de lutte contre le terrorisme à Bagdad le 31 juillet 2012[16].
-Septembre
-4 septembre 2012 : Canada. À Montréal, un anglophone tente d'entrer sans succès à l'intérieur d'une salle ou se trouve Pauline Marois, nouvelle première ministre indépendantiste du Québec, 1 mort et 1 blessé.
-11 septembre 2012 : Libye. Attaque à la roquette contre le consulat américain de Benghazi, l'ambassadeur et 3 fonctionnaires américains sont tués[17].
+19 juillet 2012 : États-Unis. Une fusillade à Aurora dans une salle de cinéma fait 12 morts.
+23 juillet 2012 : Irak. Une série d'attentats à la bombe touche 13 villes et cause la mort de 103 personnes à travers le pays. L'État islamique d'Irak revendique l'attaque, branche irakienne d'Al-Qaida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 août 2012 : Égypte. 16 gardes-frontières sont tués au terminal de Karm-Abou-Salem par un commando terroriste.
+13 août 2012 : Irak. L'EI d'Irak revendique la responsabilité de 28 attaques perpétrées en Irak entre mi-juin et fin juillet, dont une ayant visé un département de lutte contre le terrorisme à Bagdad le 31 juillet 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4 septembre 2012 : Canada. À Montréal, un anglophone tente d'entrer sans succès à l'intérieur d'une salle ou se trouve Pauline Marois, nouvelle première ministre indépendantiste du Québec, 1 mort et 1 blessé.
+11 septembre 2012 : Libye. Attaque à la roquette contre le consulat américain de Benghazi, l'ambassadeur et 3 fonctionnaires américains sont tués.
 14 décembre 2012 : États-Unis : Fusillade dans une école primaire du petit village de Sandy Hook fait 28 morts et 3 blessés
-17 septembre 2012 : Afghanistan. 12 morts 8 sud-africains, sur la route de l'aéroport de Kaboul, par une voiture piégée[18].
-19 septembre 2012 : Liban. Un attentat à la voiture piégée fait 8 morts dont le chef du renseignement libanais Wissam al-Hassan et plus de 80 blessés. Le chef de l'opposition libanaise Saad Hariri accuse le président syrien Bachar el-Assad d'être le commanditaire de cet attentat[19].
-Octobre
-19 octobre 2012 : Yémen. Un attentat-suicide mené par des membres d'Al-Qaïda contre un camp militaire dans le sud du pays cause la mort de 14 soldats yéménites[20].
-29 octobre 2012 : Irak: l'État islamique d'Irak revendique la responsabilité d'une série d'attentats commis durant la fête musulmane de l'Adha qui ont entraîné la mort de 44 personnes à travers le pays[21].
-Novembre
-5 novembre 2012 : Arabie saoudite. 2 gardes-frontières sont tués dans une embuscade tendue par des éléments armés d'Al-Qaida qui tentaient de franchir la frontière en direction du Yémen. 11 assaillants sont arrêtés par les autorités saoudiennes[22].
-22 novembre 2012 : Pakistan. Attentat des talibans à Rawalpindi contre une procession chiite, 23 morts, des dizaines de blessés.
-Décembre</t>
+17 septembre 2012 : Afghanistan. 12 morts 8 sud-africains, sur la route de l'aéroport de Kaboul, par une voiture piégée.
+19 septembre 2012 : Liban. Un attentat à la voiture piégée fait 8 morts dont le chef du renseignement libanais Wissam al-Hassan et plus de 80 blessés. Le chef de l'opposition libanaise Saad Hariri accuse le président syrien Bachar el-Assad d'être le commanditaire de cet attentat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19 octobre 2012 : Yémen. Un attentat-suicide mené par des membres d'Al-Qaïda contre un camp militaire dans le sud du pays cause la mort de 14 soldats yéménites.
+29 octobre 2012 : Irak: l'État islamique d'Irak revendique la responsabilité d'une série d'attentats commis durant la fête musulmane de l'Adha qui ont entraîné la mort de 44 personnes à travers le pays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2012</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5 novembre 2012 : Arabie saoudite. 2 gardes-frontières sont tués dans une embuscade tendue par des éléments armés d'Al-Qaida qui tentaient de franchir la frontière en direction du Yémen. 11 assaillants sont arrêtés par les autorités saoudiennes.
+22 novembre 2012 : Pakistan. Attentat des talibans à Rawalpindi contre une procession chiite, 23 morts, des dizaines de blessés.</t>
         </is>
       </c>
     </row>
